--- a/seminar/presentation/ekpresentation/figures/approach.xlsx
+++ b/seminar/presentation/ekpresentation/figures/approach.xlsx
@@ -613,7 +613,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Stability and Taxation</a:t>
+            <a:t>Improve Stability through Taxation and Subsiding Techniques</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/seminar/presentation/ekpresentation/figures/approach.xlsx
+++ b/seminar/presentation/ekpresentation/figures/approach.xlsx
@@ -549,13 +549,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114289</xdr:rowOff>
+      <xdr:rowOff>123814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -564,7 +564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="1962150"/>
+          <a:off x="2847975" y="1971675"/>
           <a:ext cx="1581150" cy="1009639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -714,13 +714,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -731,7 +731,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4581525" y="1847850"/>
+          <a:off x="4572000" y="1847850"/>
           <a:ext cx="19050" cy="2733675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -936,7 +936,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>590552</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -949,7 +949,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="3638550" y="1209691"/>
-          <a:ext cx="2" cy="752459"/>
+          <a:ext cx="2" cy="761984"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -980,7 +980,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114289</xdr:rowOff>
+      <xdr:rowOff>123814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -998,8 +998,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="2971789"/>
-          <a:ext cx="0" cy="542936"/>
+          <a:off x="3638550" y="2981314"/>
+          <a:ext cx="0" cy="533411"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1047,6 +1047,56 @@
         <a:xfrm>
           <a:off x="5543550" y="2981314"/>
           <a:ext cx="0" cy="542936"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="2476495"/>
+          <a:ext cx="304800" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1365,7 +1415,7 @@
   <dimension ref="F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="A1:XFD1048576"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
